--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Itga6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Itga6.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H2">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I2">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J2">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N2">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O2">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P2">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q2">
-        <v>366.6902303916286</v>
+        <v>373.7373986214</v>
       </c>
       <c r="R2">
-        <v>366.6902303916286</v>
+        <v>1494.9495944856</v>
       </c>
       <c r="S2">
-        <v>0.0332937092619086</v>
+        <v>0.02599350760511385</v>
       </c>
       <c r="T2">
-        <v>0.0332937092619086</v>
+        <v>0.01741612106036582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H3">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I3">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J3">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N3">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O3">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P3">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q3">
-        <v>0.7488739447217448</v>
+        <v>0.831272966975</v>
       </c>
       <c r="R3">
-        <v>0.7488739447217448</v>
+        <v>4.98763780185</v>
       </c>
       <c r="S3">
-        <v>6.799415234694398E-05</v>
+        <v>5.781519395354664E-05</v>
       </c>
       <c r="T3">
-        <v>6.799415234694398E-05</v>
+        <v>5.810584121544654E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H4">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I4">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J4">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N4">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O4">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P4">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q4">
-        <v>118.4658975445247</v>
+        <v>133.4977970997</v>
       </c>
       <c r="R4">
-        <v>118.4658975445247</v>
+        <v>800.9867825982</v>
       </c>
       <c r="S4">
-        <v>0.01075613371560526</v>
+        <v>0.009284797338925725</v>
       </c>
       <c r="T4">
-        <v>0.01075613371560526</v>
+        <v>0.009331473666363501</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H5">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I5">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J5">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N5">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O5">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P5">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q5">
-        <v>99.82322287531235</v>
+        <v>102.2471822703375</v>
       </c>
       <c r="R5">
-        <v>99.82322287531235</v>
+        <v>613.4830936220249</v>
       </c>
       <c r="S5">
-        <v>0.009063468520685266</v>
+        <v>0.007111311096371765</v>
       </c>
       <c r="T5">
-        <v>0.009063468520685266</v>
+        <v>0.007147060921933874</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H6">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I6">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J6">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N6">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O6">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P6">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q6">
-        <v>249.5710159200647</v>
+        <v>255.6393514541625</v>
       </c>
       <c r="R6">
-        <v>249.5710159200647</v>
+        <v>1533.836108724975</v>
       </c>
       <c r="S6">
-        <v>0.02265984789223196</v>
+        <v>0.0177797658214065</v>
       </c>
       <c r="T6">
-        <v>0.02265984789223196</v>
+        <v>0.01786914786615697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H7">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I7">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J7">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N7">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O7">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P7">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q7">
-        <v>9.735200774161417</v>
+        <v>10.57879687404375</v>
       </c>
       <c r="R7">
-        <v>9.735200774161417</v>
+        <v>42.315187496175</v>
       </c>
       <c r="S7">
-        <v>0.0008839094072265669</v>
+        <v>0.0007357573473051558</v>
       </c>
       <c r="T7">
-        <v>0.0008839094072265669</v>
+        <v>0.0004929707535584476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H8">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I8">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J8">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N8">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O8">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P8">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q8">
-        <v>582.8932895798953</v>
+        <v>682.952346101376</v>
       </c>
       <c r="R8">
-        <v>582.8932895798953</v>
+        <v>4097.714076608256</v>
       </c>
       <c r="S8">
-        <v>0.05292390717163097</v>
+        <v>0.04749946638414895</v>
       </c>
       <c r="T8">
-        <v>0.05292390717163097</v>
+        <v>0.04773825464900112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H9">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I9">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J9">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N9">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O9">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P9">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q9">
-        <v>1.190415126831522</v>
+        <v>1.519034019984</v>
       </c>
       <c r="R9">
-        <v>1.190415126831522</v>
+        <v>13.671306179856</v>
       </c>
       <c r="S9">
-        <v>0.0001080839680167589</v>
+        <v>0.0001056491068234772</v>
       </c>
       <c r="T9">
-        <v>0.0001080839680167589</v>
+        <v>0.0001592703355082873</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H10">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I10">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J10">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N10">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O10">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P10">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q10">
-        <v>188.3141981967002</v>
+        <v>243.948382112448</v>
       </c>
       <c r="R10">
-        <v>188.3141981967002</v>
+        <v>2195.535439012032</v>
       </c>
       <c r="S10">
-        <v>0.01709802346780358</v>
+        <v>0.01696665666611201</v>
       </c>
       <c r="T10">
-        <v>0.01709802346780358</v>
+        <v>0.02557792659980235</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H11">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I11">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J11">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N11">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O11">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P11">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q11">
-        <v>158.6796754746216</v>
+        <v>186.842294272296</v>
       </c>
       <c r="R11">
-        <v>158.6796754746216</v>
+        <v>1681.580648450664</v>
       </c>
       <c r="S11">
-        <v>0.01440735133680472</v>
+        <v>0.01299491732708217</v>
       </c>
       <c r="T11">
-        <v>0.01440735133680472</v>
+        <v>0.01959036763126619</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H12">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I12">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J12">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N12">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O12">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P12">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q12">
-        <v>396.719787974924</v>
+        <v>467.144833445784</v>
       </c>
       <c r="R12">
-        <v>396.719787974924</v>
+        <v>4204.303501012057</v>
       </c>
       <c r="S12">
-        <v>0.03602024865832008</v>
+        <v>0.0324900125747473</v>
       </c>
       <c r="T12">
-        <v>0.03602024865832008</v>
+        <v>0.04898001846901142</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H13">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I13">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J13">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N13">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O13">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P13">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q13">
-        <v>15.47514150543684</v>
+        <v>19.331258179428</v>
       </c>
       <c r="R13">
-        <v>15.47514150543684</v>
+        <v>115.987549076568</v>
       </c>
       <c r="S13">
-        <v>0.001405068418426757</v>
+        <v>0.001344492706260863</v>
       </c>
       <c r="T13">
-        <v>0.001405068418426757</v>
+        <v>0.001351251710200781</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H14">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I14">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J14">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N14">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O14">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P14">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q14">
-        <v>526.4405035852026</v>
+        <v>547.6366965473441</v>
       </c>
       <c r="R14">
-        <v>526.4405035852026</v>
+        <v>3285.820179284064</v>
       </c>
       <c r="S14">
-        <v>0.04779826572237638</v>
+        <v>0.03808823705909887</v>
       </c>
       <c r="T14">
-        <v>0.04779826572237638</v>
+        <v>0.03827971340043426</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H15">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I15">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J15">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N15">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O15">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P15">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q15">
-        <v>1.075124298130613</v>
+        <v>1.218062691190445</v>
       </c>
       <c r="R15">
-        <v>1.075124298130613</v>
+        <v>10.962564220714</v>
       </c>
       <c r="S15">
-        <v>9.761611528113225E-05</v>
+        <v>8.47164933018596E-05</v>
       </c>
       <c r="T15">
-        <v>9.761611528113225E-05</v>
+        <v>0.0001277135672695947</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H16">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I16">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J16">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N16">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O16">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P16">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q16">
-        <v>170.0761067302118</v>
+        <v>195.6140671757787</v>
       </c>
       <c r="R16">
-        <v>170.0761067302118</v>
+        <v>1760.526604582008</v>
       </c>
       <c r="S16">
-        <v>0.01544209248178071</v>
+        <v>0.01360499581138174</v>
       </c>
       <c r="T16">
-        <v>0.01544209248178071</v>
+        <v>0.02051008581727161</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H17">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I17">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J17">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N17">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O17">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P17">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q17">
-        <v>143.3116657180978</v>
+        <v>149.822600939449</v>
       </c>
       <c r="R17">
-        <v>143.3116657180978</v>
+        <v>1348.403408455041</v>
       </c>
       <c r="S17">
-        <v>0.0130120099659113</v>
+        <v>0.0104201905704454</v>
       </c>
       <c r="T17">
-        <v>0.0130120099659113</v>
+        <v>0.01570886208236575</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H18">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I18">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J18">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N18">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O18">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P18">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q18">
-        <v>358.2977685577001</v>
+        <v>374.5878535417377</v>
       </c>
       <c r="R18">
-        <v>358.2977685577001</v>
+        <v>3371.290681875639</v>
       </c>
       <c r="S18">
-        <v>0.03253171409232891</v>
+        <v>0.02605265690759508</v>
       </c>
       <c r="T18">
-        <v>0.03253171409232891</v>
+        <v>0.03927544237063903</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H19">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I19">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J19">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N19">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O19">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P19">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q19">
-        <v>13.97638544277287</v>
+        <v>15.5010908592945</v>
       </c>
       <c r="R19">
-        <v>13.97638544277287</v>
+        <v>93.006545155767</v>
       </c>
       <c r="S19">
-        <v>0.001268988576453426</v>
+        <v>0.001078103836075561</v>
       </c>
       <c r="T19">
-        <v>0.001268988576453426</v>
+        <v>0.00108352365579027</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H20">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I20">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J20">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N20">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O20">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P20">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q20">
-        <v>518.8491170950093</v>
+        <v>562.9333652162401</v>
       </c>
       <c r="R20">
-        <v>518.8491170950093</v>
+        <v>3377.60019129744</v>
       </c>
       <c r="S20">
-        <v>0.04710900434110277</v>
+        <v>0.03915212329270709</v>
       </c>
       <c r="T20">
-        <v>0.04710900434110277</v>
+        <v>0.03934894797934112</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H21">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I21">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J21">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N21">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O21">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P21">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q21">
-        <v>1.05962077205972</v>
+        <v>1.252085797243333</v>
       </c>
       <c r="R21">
-        <v>1.05962077205972</v>
+        <v>11.26877217519</v>
       </c>
       <c r="S21">
-        <v>9.620846968068235E-05</v>
+        <v>8.708280683964726E-05</v>
       </c>
       <c r="T21">
-        <v>9.620846968068235E-05</v>
+        <v>0.0001312808813947482</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H22">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I22">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J22">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N22">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O22">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P22">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q22">
-        <v>167.6235723029715</v>
+        <v>201.07798804052</v>
       </c>
       <c r="R22">
-        <v>167.6235723029715</v>
+        <v>1809.70189236468</v>
       </c>
       <c r="S22">
-        <v>0.01521941415165954</v>
+        <v>0.01398501255328471</v>
       </c>
       <c r="T22">
-        <v>0.01521941415165954</v>
+        <v>0.02108297654774205</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H23">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I23">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J23">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N23">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O23">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P23">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q23">
-        <v>141.2450803478417</v>
+        <v>154.007467841415</v>
       </c>
       <c r="R23">
-        <v>141.2450803478417</v>
+        <v>1386.067210572735</v>
       </c>
       <c r="S23">
-        <v>0.01282437395387809</v>
+        <v>0.01071124886443443</v>
       </c>
       <c r="T23">
-        <v>0.01282437395387809</v>
+        <v>0.01614764432605814</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H24">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I24">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J24">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N24">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O24">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P24">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q24">
-        <v>353.1310368545512</v>
+        <v>385.0508965027851</v>
       </c>
       <c r="R24">
-        <v>353.1310368545512</v>
+        <v>3465.458068525065</v>
       </c>
       <c r="S24">
-        <v>0.03206259970393845</v>
+        <v>0.02678036354809676</v>
       </c>
       <c r="T24">
-        <v>0.03206259970393845</v>
+        <v>0.04037248979743806</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H25">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I25">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J25">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N25">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O25">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P25">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q25">
-        <v>13.77484292674413</v>
+        <v>15.9340696066575</v>
       </c>
       <c r="R25">
-        <v>13.77484292674413</v>
+        <v>95.60441763994501</v>
       </c>
       <c r="S25">
-        <v>0.001250689485350268</v>
+        <v>0.001108217590824076</v>
       </c>
       <c r="T25">
-        <v>0.001250689485350268</v>
+        <v>0.001113788797739357</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H26">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I26">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J26">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N26">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O26">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P26">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q26">
-        <v>190.6162619389202</v>
+        <v>233.342136998736</v>
       </c>
       <c r="R26">
-        <v>190.6162619389202</v>
+        <v>1400.052821992416</v>
       </c>
       <c r="S26">
-        <v>0.01730703978343871</v>
+        <v>0.01622899028848451</v>
       </c>
       <c r="T26">
-        <v>0.01730703978343871</v>
+        <v>0.01631057630883995</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H27">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I27">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J27">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N27">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O27">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P27">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q27">
-        <v>0.3892864880906614</v>
+        <v>0.5190034801406667</v>
       </c>
       <c r="R27">
-        <v>0.3892864880906614</v>
+        <v>4.671031321266</v>
       </c>
       <c r="S27">
-        <v>3.534534078052113E-05</v>
+        <v>3.609679137779631E-05</v>
       </c>
       <c r="T27">
-        <v>3.534534078052113E-05</v>
+        <v>5.441738455129751E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H28">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I28">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J28">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N28">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O28">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P28">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q28">
-        <v>61.58202396900272</v>
+        <v>83.34906106472801</v>
       </c>
       <c r="R28">
-        <v>61.58202396900272</v>
+        <v>750.141549582552</v>
       </c>
       <c r="S28">
-        <v>0.005591351587398796</v>
+        <v>0.005796943149539682</v>
       </c>
       <c r="T28">
-        <v>0.005591351587398796</v>
+        <v>0.008739128120527396</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H29">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I29">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J29">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N29">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O29">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P29">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q29">
-        <v>51.89101869135087</v>
+        <v>63.83780724398099</v>
       </c>
       <c r="R29">
-        <v>51.89101869135087</v>
+        <v>574.5402651958289</v>
       </c>
       <c r="S29">
-        <v>0.004711454918689706</v>
+        <v>0.004439931711975044</v>
       </c>
       <c r="T29">
-        <v>0.004711454918689706</v>
+        <v>0.006693378057437658</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H30">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I30">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J30">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N30">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O30">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P30">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q30">
-        <v>129.7342830545931</v>
+        <v>159.607876517899</v>
       </c>
       <c r="R30">
-        <v>129.7342830545931</v>
+        <v>1436.470888661091</v>
       </c>
       <c r="S30">
-        <v>0.01177924892274519</v>
+        <v>0.01110075835976701</v>
       </c>
       <c r="T30">
-        <v>0.01177924892274519</v>
+        <v>0.01673484576931253</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H31">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I31">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J31">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N31">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O31">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P31">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q31">
-        <v>5.060640908850067</v>
+        <v>6.6048489623205</v>
       </c>
       <c r="R31">
-        <v>5.060640908850067</v>
+        <v>39.629093773923</v>
       </c>
       <c r="S31">
-        <v>0.000459481854529445</v>
+        <v>0.0004593685094560826</v>
       </c>
       <c r="T31">
-        <v>0.000459481854529445</v>
+        <v>0.0004616778366475423</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H32">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I32">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J32">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N32">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O32">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P32">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q32">
-        <v>2593.786316356236</v>
+        <v>3729.96377927028</v>
       </c>
       <c r="R32">
-        <v>2593.786316356236</v>
+        <v>14919.85511708112</v>
       </c>
       <c r="S32">
-        <v>0.2355033222784571</v>
+        <v>0.2594196947399356</v>
       </c>
       <c r="T32">
-        <v>0.2355033222784571</v>
+        <v>0.1738158957871848</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H33">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I33">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J33">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N33">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O33">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P33">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q33">
-        <v>5.297165916911547</v>
+        <v>8.296247763645001</v>
       </c>
       <c r="R33">
-        <v>5.297165916911547</v>
+        <v>49.77748658187</v>
       </c>
       <c r="S33">
-        <v>0.0004809571876550622</v>
+        <v>0.0005770056198113302</v>
       </c>
       <c r="T33">
-        <v>0.0004809571876550622</v>
+        <v>0.0005799063296772135</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H34">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I34">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J34">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N34">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O34">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P34">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q34">
-        <v>837.9694863363964</v>
+        <v>1332.33106890294</v>
       </c>
       <c r="R34">
-        <v>837.9694863363964</v>
+        <v>7993.98641341764</v>
       </c>
       <c r="S34">
-        <v>0.0760835990057285</v>
+        <v>0.09266388084201492</v>
       </c>
       <c r="T34">
-        <v>0.0760835990057285</v>
+        <v>0.09312971865041852</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H35">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I35">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J35">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N35">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O35">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P35">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q35">
-        <v>706.1003759822967</v>
+        <v>1020.444536210692</v>
       </c>
       <c r="R35">
-        <v>706.1003759822967</v>
+        <v>6122.667217264154</v>
       </c>
       <c r="S35">
-        <v>0.06411051803199508</v>
+        <v>0.07097211280014165</v>
       </c>
       <c r="T35">
-        <v>0.06411051803199508</v>
+        <v>0.07132890223291924</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H36">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I36">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J36">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N36">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O36">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P36">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q36">
-        <v>1765.342603650033</v>
+        <v>2551.324874089208</v>
       </c>
       <c r="R36">
-        <v>1765.342603650033</v>
+        <v>15307.94924453524</v>
       </c>
       <c r="S36">
-        <v>0.1602846177025576</v>
+        <v>0.1774451333004934</v>
       </c>
       <c r="T36">
-        <v>0.1602846177025576</v>
+        <v>0.1783371815425643</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H37">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I37">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J37">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N37">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O37">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P37">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q37">
-        <v>68.86202157071972</v>
+        <v>105.5782196643712</v>
       </c>
       <c r="R37">
-        <v>68.86202157071972</v>
+        <v>422.312878657485</v>
       </c>
       <c r="S37">
-        <v>0.00625234035527542</v>
+        <v>0.007342985384666493</v>
       </c>
       <c r="T37">
-        <v>0.00625234035527542</v>
+        <v>0.00491993325205132</v>
       </c>
     </row>
   </sheetData>
